--- a/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
@@ -483,9 +483,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -569,16 +569,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,17 +592,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,61 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,12 +623,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -696,11 +689,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,7 +732,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,43 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,85 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,11 +1268,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,8 +1286,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,17 +1307,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,40 +1365,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1383,7 +1383,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,127 +1392,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2153,8 +2153,8 @@
   <sheetPr/>
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="13.5"/>
@@ -6885,11 +6885,11 @@
         <v>90</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f>IFERROR(AVERAGE(C14:C23),"")</f>
+        <f t="shared" ref="C33:AQ33" si="1">IFERROR(AVERAGE(C17:C23),"")</f>
         <v/>
       </c>
       <c r="D33" s="22" t="str">
-        <f t="shared" ref="C33:AQ33" si="1">IFERROR(AVERAGE(D14:D23),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E33" s="22" t="str">
@@ -7054,7 +7054,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="22" t="str">
-        <f t="shared" ref="C34:AQ34" si="2">IFERROR(AVERAGE(C22:C31),"")</f>
+        <f t="shared" ref="C34:AQ34" si="2">IFERROR(AVERAGE(C24:C31),"")</f>
         <v/>
       </c>
       <c r="D34" s="22" t="str">

--- a/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="8.制酸操作（日）4.3m无此表" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t xml:space="preserve"> 6-7# 焦 炉 制 酸 操 作 记 录</t>
   </si>
@@ -483,12 +483,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,21 +556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,16 +564,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,8 +597,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,45 +635,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -674,6 +658,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -683,7 +691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,14 +699,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,6 +714,17 @@
       <b/>
       <sz val="14"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -732,7 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +767,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,31 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,31 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,25 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,30 +1275,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,6 +1294,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1318,15 +1323,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,6 +1351,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1371,10 +1382,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1383,136 +1394,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2153,8 +2164,8 @@
   <sheetPr/>
   <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-化产-制酸操作报表（日）.xlsx
@@ -2943,6 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="C11" xSplit="2" ySplit="10"/>
       <selection activeCell="A3" activeCellId="0" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
